--- a/data/05_input/zm.bs13c.xlsx
+++ b/data/05_input/zm.bs13c.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/DF387AD4-60E8-45F6-A26F-D11A01A43EDD/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Zmays_B73/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/32A215DB-3CF3-435B-A42F-1740A2B81A1A/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D868063-218F-E942-AE31-B66168FA370C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1ABD5D-522F-4F4C-9A62-35013015EE8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23860" yWindow="7700" windowWidth="17280" windowHeight="11560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="16320" yWindow="7700" windowWidth="17280" windowHeight="11560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>SampleID</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>s5</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,8 +523,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>25</v>
       </c>
       <c r="G2">
         <v>376613046</v>
@@ -543,8 +549,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>26</v>
       </c>
       <c r="G3">
         <v>113211605</v>
@@ -569,8 +575,8 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>26</v>
       </c>
       <c r="G4">
         <v>164205900</v>
@@ -595,8 +601,8 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
       <c r="G5">
         <v>183466852</v>
@@ -621,8 +627,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>25</v>
       </c>
       <c r="G6">
         <v>765117016</v>
